--- a/data/trans_orig/P1419-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5499</v>
+        <v>5446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17676</v>
+        <v>17974</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03726112677899492</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02014390758013687</v>
+        <v>0.01994655815527554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06474445239206739</v>
+        <v>0.06583713575510573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>28782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19239</v>
+        <v>20066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39839</v>
+        <v>40365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1103424573132775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07375968325647096</v>
+        <v>0.07692782681977274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1527341336600547</v>
+        <v>0.154751993319374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -786,19 +786,19 @@
         <v>38954</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27050</v>
+        <v>27058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51128</v>
+        <v>51913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07296865709493715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05066930601559696</v>
+        <v>0.05068448772938142</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09577250200938642</v>
+        <v>0.09724336159371469</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>262837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255334</v>
+        <v>255036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267511</v>
+        <v>267564</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.962738873221005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9352555476079326</v>
+        <v>0.9341628642448941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.979856092419863</v>
+        <v>0.9800534418447243</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>219</v>
@@ -836,19 +836,19 @@
         <v>232056</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220999</v>
+        <v>220473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>241599</v>
+        <v>240772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8896575426867225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8472658663399453</v>
+        <v>0.8452480066806261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9262403167435291</v>
+        <v>0.9230721731802273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>479</v>
@@ -857,19 +857,19 @@
         <v>494894</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>482720</v>
+        <v>481935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>506798</v>
+        <v>506790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9270313429050628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9042274979906134</v>
+        <v>0.9027566384062853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.949330693984403</v>
+        <v>0.9493155122706185</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19079</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10570</v>
+        <v>11209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30091</v>
+        <v>30457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03869305047513477</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02143726508319044</v>
+        <v>0.02273385906368972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06102621793471381</v>
+        <v>0.06177001568404473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -982,19 +982,19 @@
         <v>53432</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40719</v>
+        <v>40685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68761</v>
+        <v>68052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1060257613991308</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08080044939507609</v>
+        <v>0.08073256718883481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1364444895778538</v>
+        <v>0.1350366545657007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1003,19 +1003,19 @@
         <v>72510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56833</v>
+        <v>56834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90130</v>
+        <v>89701</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07272658487740191</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05700285480573767</v>
+        <v>0.05700347208896369</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09039872478913626</v>
+        <v>0.08996876200359338</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>473996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462984</v>
+        <v>462618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482505</v>
+        <v>481866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9613069495248653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9389737820652859</v>
+        <v>0.9382299843159553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9785627349168096</v>
+        <v>0.97726614093631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -1053,19 +1053,19 @@
         <v>450517</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>435188</v>
+        <v>435897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463230</v>
+        <v>463264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8939742386008691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8635555104221463</v>
+        <v>0.8649633454342989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9191995506049243</v>
+        <v>0.9192674328111651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>896</v>
@@ -1074,19 +1074,19 @@
         <v>924514</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>906894</v>
+        <v>907323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>940191</v>
+        <v>940190</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9272734151225981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9096012752108639</v>
+        <v>0.9100312379964067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9429971451942624</v>
+        <v>0.9429965279110364</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3119</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8518</v>
+        <v>8632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009782271786690517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002974559319286627</v>
+        <v>0.002965856998876782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02671366728418834</v>
+        <v>0.02707407163575808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>19936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13149</v>
+        <v>12727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29867</v>
+        <v>30210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05943863489602143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03920310408579348</v>
+        <v>0.03794494548871967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08904489443954926</v>
+        <v>0.09006744755939437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1220,19 +1220,19 @@
         <v>23055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15080</v>
+        <v>14810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34045</v>
+        <v>33030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03523911352537489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02304944748727872</v>
+        <v>0.02263633976167915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05203625852928435</v>
+        <v>0.05048460650898493</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310328</v>
+        <v>310214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317898</v>
+        <v>317900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902177282133094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9732863327158117</v>
+        <v>0.9729259283642413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970254406807133</v>
+        <v>0.9970341430011233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -1270,19 +1270,19 @@
         <v>315476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>305545</v>
+        <v>305202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322263</v>
+        <v>322685</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9405613651039786</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.910955105560451</v>
+        <v>0.9099325524406051</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9607968959142069</v>
+        <v>0.9620550545112801</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>621</v>
@@ -1291,19 +1291,19 @@
         <v>631203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620213</v>
+        <v>621228</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639178</v>
+        <v>639448</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9647608864746251</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9479637414707159</v>
+        <v>0.9495153934910151</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9769505525127213</v>
+        <v>0.9773636602383209</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6167</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2580</v>
+        <v>2601</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14053</v>
+        <v>13295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01719523128426607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007193692488825712</v>
+        <v>0.00725218954721232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03918191277036045</v>
+        <v>0.03706645857819002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1416,19 +1416,19 @@
         <v>45184</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34227</v>
+        <v>33805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59472</v>
+        <v>56615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.121639132382408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0921424884247502</v>
+        <v>0.09100712956154929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1601059934006775</v>
+        <v>0.152412942788487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1437,19 +1437,19 @@
         <v>51351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39040</v>
+        <v>39437</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65504</v>
+        <v>65934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07033161164152339</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05347071460114545</v>
+        <v>0.05401355414984334</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08971574653156628</v>
+        <v>0.09030524197382254</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>352504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344618</v>
+        <v>345376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356091</v>
+        <v>356070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.982804768715734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9608180872296398</v>
+        <v>0.96293354142181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9928063075111743</v>
+        <v>0.9927478104527877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -1487,19 +1487,19 @@
         <v>326272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>311984</v>
+        <v>314841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>337229</v>
+        <v>337651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8783608676175919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8398940065993223</v>
+        <v>0.8475870572115132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9078575115752497</v>
+        <v>0.9089928704384508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>693</v>
@@ -1508,19 +1508,19 @@
         <v>678776</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>664623</v>
+        <v>664193</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>691087</v>
+        <v>690690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9296683883584766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9102842534684331</v>
+        <v>0.9096947580261778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9465292853988543</v>
+        <v>0.9459864458501567</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2991</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7899</v>
+        <v>8091</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01471065046587051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004183143888489131</v>
+        <v>0.004297486903129935</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03885128486780799</v>
+        <v>0.0397960987780567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>15240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8291</v>
+        <v>9031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25116</v>
+        <v>24199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07338661857100452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03992421679733745</v>
+        <v>0.04348786516948493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1209432166816062</v>
+        <v>0.1165277019055448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1654,19 +1654,19 @@
         <v>18231</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11246</v>
+        <v>10542</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27963</v>
+        <v>28412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04435987470440875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02736446063076802</v>
+        <v>0.02565194581844321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06803942718818928</v>
+        <v>0.06913311202025393</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>200317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195409</v>
+        <v>195217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202458</v>
+        <v>202434</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9852893495341295</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.961148715132192</v>
+        <v>0.9602039012219432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958168561115108</v>
+        <v>0.9957025130968701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1704,19 +1704,19 @@
         <v>192428</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182552</v>
+        <v>183469</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199377</v>
+        <v>198637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9266133814289955</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8790567833183943</v>
+        <v>0.8834722980944553</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9600757832026626</v>
+        <v>0.9565121348305152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -1725,19 +1725,19 @@
         <v>392745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383013</v>
+        <v>382564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399730</v>
+        <v>400434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9556401252955913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9319605728118106</v>
+        <v>0.930866887979746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9726355393692319</v>
+        <v>0.9743480541815568</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4819</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11772</v>
+        <v>12764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0177955366661893</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003921291262157575</v>
+        <v>0.003940789007420287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04346776059484798</v>
+        <v>0.04713078012495751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1850,19 +1850,19 @@
         <v>33175</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22975</v>
+        <v>23198</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45077</v>
+        <v>46735</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1192726878994586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08259941751515401</v>
+        <v>0.08340348239692696</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1620645904667044</v>
+        <v>0.168024749928433</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1871,19 +1871,19 @@
         <v>37994</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26681</v>
+        <v>27773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50340</v>
+        <v>52124</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06921188326488761</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04860387480458132</v>
+        <v>0.05059296435588506</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09170063348442842</v>
+        <v>0.09495047625130679</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>265992</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259039</v>
+        <v>258047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269749</v>
+        <v>269744</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9822044633338107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9565322394051523</v>
+        <v>0.9528692198750427</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9960787087378424</v>
+        <v>0.9960592109925798</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -1921,19 +1921,19 @@
         <v>244969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>233067</v>
+        <v>231409</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>255169</v>
+        <v>254946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8807273121005413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8379354095332957</v>
+        <v>0.8319752500715667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9174005824848459</v>
+        <v>0.916596517603073</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -1942,19 +1942,19 @@
         <v>510961</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>498615</v>
+        <v>496831</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>522274</v>
+        <v>521182</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9307881167351124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9082993665155715</v>
+        <v>0.9050495237486932</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9513961251954187</v>
+        <v>0.9494070356441149</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>9547</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4629</v>
+        <v>4690</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18029</v>
+        <v>18332</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01552208442530211</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007525740831404671</v>
+        <v>0.007625150003867817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02931387283183224</v>
+        <v>0.02980757115581997</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2067,19 +2067,19 @@
         <v>52332</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39727</v>
+        <v>38570</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67727</v>
+        <v>66718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0819968187924613</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06224680559019594</v>
+        <v>0.06043397655011427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1061191519495381</v>
+        <v>0.1045377807000234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -2088,19 +2088,19 @@
         <v>61878</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48499</v>
+        <v>47241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77362</v>
+        <v>77992</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04937452808934963</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.038698702261744</v>
+        <v>0.03769472805575459</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06172899392140611</v>
+        <v>0.06223193566354285</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>605480</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>596998</v>
+        <v>596695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>610398</v>
+        <v>610337</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9844779155746979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9706861271681677</v>
+        <v>0.9701924288441798</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9924742591685951</v>
+        <v>0.9923748499961321</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>569</v>
@@ -2138,19 +2138,19 @@
         <v>585887</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>570492</v>
+        <v>571501</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>598492</v>
+        <v>599649</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9180031812075387</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8938808480504619</v>
+        <v>0.8954622192999766</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9377531944098041</v>
+        <v>0.9395660234498857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1158</v>
@@ -2159,19 +2159,19 @@
         <v>1191368</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1175884</v>
+        <v>1175254</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1204747</v>
+        <v>1206005</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9506254719106504</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9382710060785939</v>
+        <v>0.9377680643364571</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9613012977382561</v>
+        <v>0.9623052719442454</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>43184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32291</v>
+        <v>31702</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57536</v>
+        <v>56865</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05805948048873193</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0434140202285519</v>
+        <v>0.04262226297252977</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0773547958520697</v>
+        <v>0.07645245392520397</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>110</v>
@@ -2284,19 +2284,19 @@
         <v>116258</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96294</v>
+        <v>98029</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137521</v>
+        <v>140024</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1483802601661927</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.122901005709702</v>
+        <v>0.1251152743617421</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1755190635345179</v>
+        <v>0.1787130482533738</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>155</v>
@@ -2305,19 +2305,19 @@
         <v>159442</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136922</v>
+        <v>135499</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>184529</v>
+        <v>184104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1043942179063838</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08964963194352102</v>
+        <v>0.0887176082817915</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1208202486896134</v>
+        <v>0.1205413329995604</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>700611</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>686259</v>
+        <v>686930</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>711504</v>
+        <v>712093</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9419405195112681</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9226452041479301</v>
+        <v>0.9235475460747961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9565859797714478</v>
+        <v>0.9573777370274695</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>635</v>
@@ -2355,19 +2355,19 @@
         <v>667253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>645990</v>
+        <v>643487</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>687217</v>
+        <v>685482</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8516197398338073</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8244809364654823</v>
+        <v>0.8212869517466262</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.877098994290298</v>
+        <v>0.8748847256382579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1326</v>
@@ -2376,19 +2376,19 @@
         <v>1367864</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1342777</v>
+        <v>1343202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1390384</v>
+        <v>1391807</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8956057820936162</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8791797513103867</v>
+        <v>0.87945866700044</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.910350368056479</v>
+        <v>0.9112823917182085</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>99079</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03023875351463116</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>354</v>
@@ -2501,19 +2501,19 @@
         <v>364338</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1078178104653652</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>451</v>
@@ -2522,19 +2522,19 @@
         <v>463416</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06962654745453964</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3177464</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3156239</v>
+        <v>3153892</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3195579</v>
+        <v>3195247</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9697612464853689</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9632832156124328</v>
+        <v>0.9625668331391478</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.975289944962061</v>
+        <v>0.9751884236736645</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2943</v>
@@ -2572,19 +2572,19 @@
         <v>3014859</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2974941</v>
+        <v>2974957</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3051337</v>
+        <v>3049091</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8921821895346348</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8803693333713307</v>
+        <v>0.8803739394278606</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9029768730090187</v>
+        <v>0.902312315819083</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6060</v>
@@ -2593,19 +2593,19 @@
         <v>6192325</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6149632</v>
+        <v>6152065</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6235263</v>
+        <v>6232714</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9303734525454603</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9239590141092271</v>
+        <v>0.9243246002715525</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9368248035459542</v>
+        <v>0.9364418389452557</v>
       </c>
     </row>
     <row r="30">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8131</v>
+        <v>7945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007849642805192012</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02758596668857418</v>
+        <v>0.02695757810926401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2962,19 +2962,19 @@
         <v>15533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8716</v>
+        <v>8858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25531</v>
+        <v>26500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05407442085234553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03034463508846115</v>
+        <v>0.03083611072664983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08888405365222017</v>
+        <v>0.09225583860208697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2983,19 +2983,19 @@
         <v>17846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9749</v>
+        <v>10418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29233</v>
+        <v>29214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0306644598617725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0167518234550478</v>
+        <v>0.01790072296581419</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05023075016444253</v>
+        <v>0.05019738147934574</v>
       </c>
     </row>
     <row r="5">
@@ -3012,7 +3012,7 @@
         <v>292424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286607</v>
+        <v>286793</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>294738</v>
@@ -3021,7 +3021,7 @@
         <v>0.992150357194808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724140333114265</v>
+        <v>0.9730424218907353</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3033,19 +3033,19 @@
         <v>271712</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261714</v>
+        <v>260745</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278529</v>
+        <v>278387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9459255791476545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9111159463477798</v>
+        <v>0.9077441613979129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9696553649115386</v>
+        <v>0.9691638892733501</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>523</v>
@@ -3054,19 +3054,19 @@
         <v>564137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>552750</v>
+        <v>552769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>572234</v>
+        <v>571565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9693355401382275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9497692498355578</v>
+        <v>0.9498026185206542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9832481765449522</v>
+        <v>0.982099277034186</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>7153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2094</v>
+        <v>3021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15512</v>
+        <v>15115</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01414895712014505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004143120748238491</v>
+        <v>0.005975784961646032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03068521103711102</v>
+        <v>0.0298993955405824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -3179,19 +3179,19 @@
         <v>30566</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20912</v>
+        <v>20878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43170</v>
+        <v>44456</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05835810222338925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03992709116098553</v>
+        <v>0.03986230040555964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08242297082267946</v>
+        <v>0.08487723372534627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -3200,19 +3200,19 @@
         <v>37719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25641</v>
+        <v>26490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52261</v>
+        <v>52221</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03664519453349332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02491174372279962</v>
+        <v>0.02573651005179051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05077383876476808</v>
+        <v>0.05073466432793912</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>498374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490015</v>
+        <v>490412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503433</v>
+        <v>502506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9858510428798549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.969314788962889</v>
+        <v>0.9701006044594177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958568792517615</v>
+        <v>0.994024215038354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -3250,19 +3250,19 @@
         <v>493199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>480595</v>
+        <v>479309</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502853</v>
+        <v>502887</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9416418977766108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9175770291773205</v>
+        <v>0.9151227662746539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9600729088390145</v>
+        <v>0.9601376995944404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>919</v>
@@ -3271,19 +3271,19 @@
         <v>991573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>977031</v>
+        <v>977071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1003651</v>
+        <v>1002802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9633548054665066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9492261612352318</v>
+        <v>0.9492653356720608</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9750882562772003</v>
+        <v>0.9742634899482091</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>4147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9274</v>
+        <v>9453</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01279679237811215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003169537092888119</v>
+        <v>0.003200253730869929</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02861798194922534</v>
+        <v>0.02917280222108387</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3396,19 +3396,19 @@
         <v>14552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8377</v>
+        <v>8396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23843</v>
+        <v>23690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04267272733640447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02456325134472826</v>
+        <v>0.0246202545744735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06991776233664611</v>
+        <v>0.06946900785311423</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3417,19 +3417,19 @@
         <v>18699</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11405</v>
+        <v>11364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29603</v>
+        <v>27989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0281160109915046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01714905084271618</v>
+        <v>0.01708635173031356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04451207265400392</v>
+        <v>0.04208521954920249</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>319899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314772</v>
+        <v>314593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323019</v>
+        <v>323009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9872032076218878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9713820180507747</v>
+        <v>0.970827197778916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968304629071119</v>
+        <v>0.9967997462691301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -3467,19 +3467,19 @@
         <v>326468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317177</v>
+        <v>317330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332643</v>
+        <v>332624</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9573272726635955</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9300822376633539</v>
+        <v>0.9305309921468858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9754367486552717</v>
+        <v>0.9753797454255265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>618</v>
@@ -3488,19 +3488,19 @@
         <v>646367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635463</v>
+        <v>637077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653661</v>
+        <v>653702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9718839890084954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.955487927345996</v>
+        <v>0.9579147804507974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9828509491572839</v>
+        <v>0.9829136482696864</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>4035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>967</v>
+        <v>990</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11204</v>
+        <v>13004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01078882103320479</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002585599757757545</v>
+        <v>0.002646335762649772</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02995737207190658</v>
+        <v>0.03477132757025576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -3613,19 +3613,19 @@
         <v>46583</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34457</v>
+        <v>35727</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61498</v>
+        <v>62926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1197655864870193</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08858925315838567</v>
+        <v>0.09185360681278255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1581122763349077</v>
+        <v>0.1617845668805664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -3634,19 +3634,19 @@
         <v>50618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37857</v>
+        <v>37481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66871</v>
+        <v>66502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06634627535138908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04962060644370345</v>
+        <v>0.04912762207228857</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08764950698790315</v>
+        <v>0.08716563075806635</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>369947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362778</v>
+        <v>360978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>373015</v>
+        <v>372992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9892111789667952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9700426279280936</v>
+        <v>0.9652286724297442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974144002422425</v>
+        <v>0.9973536642373503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -3684,19 +3684,19 @@
         <v>342368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327453</v>
+        <v>326025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354494</v>
+        <v>353224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8802344135129807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8418877236650923</v>
+        <v>0.8382154331194337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9114107468416146</v>
+        <v>0.9081463931872175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>669</v>
@@ -3705,19 +3705,19 @@
         <v>712315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696062</v>
+        <v>696431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>725076</v>
+        <v>725452</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.933653724648611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9123504930120968</v>
+        <v>0.9128343692419337</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9503793935562965</v>
+        <v>0.9508723779277115</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>5372</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1937</v>
+        <v>1967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12540</v>
+        <v>12304</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02526680925512414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009108875027276277</v>
+        <v>0.009253273405189888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05897877920794646</v>
+        <v>0.05786775712073991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3830,19 +3830,19 @@
         <v>37347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27886</v>
+        <v>27339</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49529</v>
+        <v>49841</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1700773795984719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1269891851688251</v>
+        <v>0.124497816523015</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2255514184087107</v>
+        <v>0.2269717033799973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -3851,19 +3851,19 @@
         <v>42720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31203</v>
+        <v>31587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56307</v>
+        <v>55701</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0988402310394786</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07219327579577552</v>
+        <v>0.07308368096965752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1302778876037314</v>
+        <v>0.128874438331015</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>207246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200078</v>
+        <v>200314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210681</v>
+        <v>210651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9747331907448759</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9410212207920535</v>
+        <v>0.94213224287926</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9908911249727237</v>
+        <v>0.9907467265948101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>176</v>
@@ -3901,19 +3901,19 @@
         <v>182244</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170062</v>
+        <v>169750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191705</v>
+        <v>192252</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8299226204015281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7744485815912894</v>
+        <v>0.7730282966200027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8730108148311749</v>
+        <v>0.8755021834769851</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -3922,19 +3922,19 @@
         <v>389489</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375902</v>
+        <v>376508</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401006</v>
+        <v>400622</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9011597689605214</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.869722112396269</v>
+        <v>0.8711255616689854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9278067242042246</v>
+        <v>0.9269163190303427</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>3035</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>941</v>
+        <v>917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8105</v>
+        <v>8258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01107863559535979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003434479847945526</v>
+        <v>0.003347819566739972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02958076770857926</v>
+        <v>0.03014144554621665</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -4047,19 +4047,19 @@
         <v>22359</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14232</v>
+        <v>15233</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32470</v>
+        <v>33139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08040117738512927</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05117714256333891</v>
+        <v>0.05477609223579854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.116759907837454</v>
+        <v>0.1191637246423461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -4068,19 +4068,19 @@
         <v>25395</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16705</v>
+        <v>16496</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37025</v>
+        <v>36244</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0459982443263933</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03025860106345345</v>
+        <v>0.02988043093229963</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06706417966262922</v>
+        <v>0.06565114430593227</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>270946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265876</v>
+        <v>265723</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273040</v>
+        <v>273064</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9889213644046402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9704192322914207</v>
+        <v>0.9698585544537833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9965655201520545</v>
+        <v>0.99665218043326</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -4118,19 +4118,19 @@
         <v>255737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245626</v>
+        <v>244957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263864</v>
+        <v>262863</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9195988226148707</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.883240092162546</v>
+        <v>0.8808362753576541</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9488228574366611</v>
+        <v>0.9452239077642016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>504</v>
@@ -4139,19 +4139,19 @@
         <v>526682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>515052</v>
+        <v>515833</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>535372</v>
+        <v>535581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9540017556736067</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9329358203373699</v>
+        <v>0.9343488556940678</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9697413989365452</v>
+        <v>0.9701195690677004</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>6291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2039</v>
+        <v>2057</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14937</v>
+        <v>15315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009491511545773965</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003075647816074632</v>
+        <v>0.003104094495817608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02253733863927674</v>
+        <v>0.02310719221257871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -4264,19 +4264,19 @@
         <v>70029</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53667</v>
+        <v>54007</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86692</v>
+        <v>87327</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1009279618182195</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07734705081584554</v>
+        <v>0.07783694960819922</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1249433107050659</v>
+        <v>0.1258581827456561</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -4285,19 +4285,19 @@
         <v>76320</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60992</v>
+        <v>59951</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94034</v>
+        <v>95599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0562566116625472</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04495783195621798</v>
+        <v>0.04419062978099195</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06931381991442365</v>
+        <v>0.07046769341418797</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>656497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>647851</v>
+        <v>647473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660749</v>
+        <v>660731</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.990508488454226</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9774626613607232</v>
+        <v>0.9768928077874214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9969243521839254</v>
+        <v>0.9968959055041825</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>571</v>
@@ -4335,19 +4335,19 @@
         <v>623824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>607161</v>
+        <v>606526</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>640186</v>
+        <v>639846</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8990720381817805</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8750566892949342</v>
+        <v>0.874141817254344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9226529491841544</v>
+        <v>0.9221630503918009</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1184</v>
@@ -4356,19 +4356,19 @@
         <v>1280321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1262607</v>
+        <v>1261042</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1295649</v>
+        <v>1296690</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9437433883374527</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9306861800855762</v>
+        <v>0.929532306585812</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9550421680437815</v>
+        <v>0.9558093702190077</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>8442</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4132</v>
+        <v>4014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16015</v>
+        <v>14944</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.010835138014871</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005304032525679571</v>
+        <v>0.005152676069568007</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02055608265277546</v>
+        <v>0.01918098787439777</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -4481,19 +4481,19 @@
         <v>62715</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49173</v>
+        <v>47330</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80415</v>
+        <v>78778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0762419593467006</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0597792460130085</v>
+        <v>0.0575390502792565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09775958264415363</v>
+        <v>0.09576996820144479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -4502,19 +4502,19 @@
         <v>71157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56321</v>
+        <v>55192</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91498</v>
+        <v>88571</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04442632036591258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03516403474789984</v>
+        <v>0.03445866279235935</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05712637701786125</v>
+        <v>0.05529896579340524</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>770656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>763083</v>
+        <v>764154</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774966</v>
+        <v>775084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.989164861985129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9794439173472247</v>
+        <v>0.9808190121256023</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9946959674743204</v>
+        <v>0.9948473239304321</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>698</v>
@@ -4552,19 +4552,19 @@
         <v>759863</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>742163</v>
+        <v>743800</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>773405</v>
+        <v>775248</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9237580406532994</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9022404173558464</v>
+        <v>0.9042300317985552</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9402207539869915</v>
+        <v>0.9424609497207435</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1407</v>
@@ -4573,19 +4573,19 @@
         <v>1530519</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1510178</v>
+        <v>1513105</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1545355</v>
+        <v>1546484</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9555736796340875</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9428736229821387</v>
+        <v>0.9447010342065947</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9648359652521001</v>
+        <v>0.9655413372076406</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>40788</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28517</v>
+        <v>29281</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54411</v>
+        <v>56833</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01190268261632861</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008321914230386985</v>
+        <v>0.008544790778515452</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01587805664747063</v>
+        <v>0.01658484248647284</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>278</v>
@@ -4698,19 +4698,19 @@
         <v>299684</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>268838</v>
+        <v>268332</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>336173</v>
+        <v>333160</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08429711105301943</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07562042602825234</v>
+        <v>0.0754780933745748</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09456085062818462</v>
+        <v>0.09371339908290738</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>314</v>
@@ -4719,19 +4719,19 @@
         <v>340472</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>303307</v>
+        <v>306565</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>378187</v>
+        <v>378251</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04876516366056659</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04344210027482111</v>
+        <v>0.04390865101475343</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05416702218811009</v>
+        <v>0.05417611118663095</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3385991</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3372368</v>
+        <v>3369946</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3398262</v>
+        <v>3397498</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9880973173836713</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9841219433525294</v>
+        <v>0.9834151575135271</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.991678085769613</v>
+        <v>0.9914552092214846</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3018</v>
@@ -4769,19 +4769,19 @@
         <v>3255414</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3218925</v>
+        <v>3221938</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3286260</v>
+        <v>3286766</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9157028889469806</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9054391493718151</v>
+        <v>0.9062866009170925</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9243795739717475</v>
+        <v>0.9245219066254251</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6191</v>
@@ -4790,19 +4790,19 @@
         <v>6641405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6603690</v>
+        <v>6603626</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6678570</v>
+        <v>6675312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9512348363394334</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.94583297781189</v>
+        <v>0.945823888813369</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9565578997251791</v>
+        <v>0.9560913489852463</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>3657</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10699</v>
+        <v>11977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01244964201224313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002982734729518358</v>
+        <v>0.002978940430720222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03641912375575401</v>
+        <v>0.04076972555252875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5159,19 +5159,19 @@
         <v>20264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12247</v>
+        <v>12673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29858</v>
+        <v>29962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07019129118967254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04242034246104832</v>
+        <v>0.04389745526974516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1034223073374565</v>
+        <v>0.1037818457011645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -5180,19 +5180,19 @@
         <v>23922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15829</v>
+        <v>14916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35805</v>
+        <v>35327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04106975813018702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02717657927475708</v>
+        <v>0.02560914066842318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06147137571484836</v>
+        <v>0.06065169536831094</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>290104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283062</v>
+        <v>281784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292885</v>
+        <v>292886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9875503579877569</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.963580876244246</v>
+        <v>0.9592302744474711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9970172652704817</v>
+        <v>0.9970210595692798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -5230,19 +5230,19 @@
         <v>268439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258845</v>
+        <v>258741</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276456</v>
+        <v>276030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9298087088103275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8965776926625435</v>
+        <v>0.8962181542988349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9575796575389516</v>
+        <v>0.9561025447302548</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>521</v>
@@ -5251,19 +5251,19 @@
         <v>558542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>546659</v>
+        <v>547137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>566635</v>
+        <v>567548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.958930241869813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9385286242851516</v>
+        <v>0.9393483046316891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9728234207252429</v>
+        <v>0.9743908593315769</v>
       </c>
     </row>
     <row r="6">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5709</v>
+        <v>6479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00228013210848923</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0113602065522312</v>
+        <v>0.01289063953353845</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5376,19 +5376,19 @@
         <v>11576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5336</v>
+        <v>5796</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22161</v>
+        <v>22783</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02213101059823731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01020042229327717</v>
+        <v>0.01108126260538325</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04236689138879342</v>
+        <v>0.04355527925584975</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -5397,19 +5397,19 @@
         <v>12722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6299</v>
+        <v>6530</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22421</v>
+        <v>23320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01240403611921176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006141137789798278</v>
+        <v>0.006366559389782519</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02186016587359593</v>
+        <v>0.02273676739602469</v>
       </c>
     </row>
     <row r="8">
@@ -5426,7 +5426,7 @@
         <v>501429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496866</v>
+        <v>496096</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -5435,7 +5435,7 @@
         <v>0.9977198678915108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9886397934477689</v>
+        <v>0.9871093604664621</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5447,19 +5447,19 @@
         <v>511508</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>500923</v>
+        <v>500301</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>517748</v>
+        <v>517288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9778689894017627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9576331086112075</v>
+        <v>0.9564447207441503</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9897995777067233</v>
+        <v>0.9889187373946169</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>949</v>
@@ -5468,19 +5468,19 @@
         <v>1012937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1003238</v>
+        <v>1002339</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1019360</v>
+        <v>1019129</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9875959638807882</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.978139834126404</v>
+        <v>0.977263232603975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9938588622102017</v>
+        <v>0.9936334406102174</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>4897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1785</v>
+        <v>1813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10281</v>
+        <v>10886</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01537328717153527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005604536429981601</v>
+        <v>0.00569112756769389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03227244947899035</v>
+        <v>0.0341727310070028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5593,19 +5593,19 @@
         <v>39636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27528</v>
+        <v>28388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53289</v>
+        <v>53364</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1178566214821445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08185384935785935</v>
+        <v>0.08441092478590795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1584512217043739</v>
+        <v>0.1586760486188912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -5614,19 +5614,19 @@
         <v>44534</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31783</v>
+        <v>33127</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60296</v>
+        <v>61050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06800336242931941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04853301137831213</v>
+        <v>0.05058572282292105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09207207793074096</v>
+        <v>0.09322477361173064</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>313668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308284</v>
+        <v>307679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316780</v>
+        <v>316752</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846267128284647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677275505210097</v>
+        <v>0.9658272689929973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9943954635700184</v>
+        <v>0.9943088724323061</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -5664,19 +5664,19 @@
         <v>296673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283020</v>
+        <v>282945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308781</v>
+        <v>307921</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8821433785178555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.841548778295626</v>
+        <v>0.841323951381109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9181461506421407</v>
+        <v>0.9155890752140929</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -5685,19 +5685,19 @@
         <v>610340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594578</v>
+        <v>593824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623091</v>
+        <v>621747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9319966375706806</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.907927922069259</v>
+        <v>0.9067752263882692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9514669886216878</v>
+        <v>0.9494142771770789</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>6283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2539</v>
+        <v>2818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12882</v>
+        <v>13625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0169839712751797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006864155999933605</v>
+        <v>0.007616738378940655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03482014633842759</v>
+        <v>0.0368266665876799</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5810,19 +5810,19 @@
         <v>29801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20000</v>
+        <v>19562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42248</v>
+        <v>43769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07694896114026392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05164309398709279</v>
+        <v>0.05051049533932592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1090886393624309</v>
+        <v>0.1130153326438733</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -5831,19 +5831,19 @@
         <v>36084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24393</v>
+        <v>24799</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52034</v>
+        <v>51007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04765219610875817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03221232531638892</v>
+        <v>0.03274915096896683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06871423282325442</v>
+        <v>0.06735888027637713</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>363681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357082</v>
+        <v>356339</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367425</v>
+        <v>367146</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9830160287248203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9651798536615723</v>
+        <v>0.96317333341232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931358440000663</v>
+        <v>0.9923832616210594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5881,19 +5881,19 @@
         <v>357482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345035</v>
+        <v>343514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367283</v>
+        <v>367721</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9230510388597361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8909113606375694</v>
+        <v>0.8869846673561268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9483569060129072</v>
+        <v>0.9494895046606743</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>682</v>
@@ -5902,19 +5902,19 @@
         <v>721163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>705213</v>
+        <v>706240</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>732854</v>
+        <v>732448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9523478038912419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9312857671767454</v>
+        <v>0.9326411197236228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.967787674683611</v>
+        <v>0.9672508490310331</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>3966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9948</v>
+        <v>9029</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01877501992692923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00479370769163698</v>
+        <v>0.004742128641884221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04709833601511627</v>
+        <v>0.04274464798939325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6027,19 +6027,19 @@
         <v>6848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2902</v>
+        <v>2799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12784</v>
+        <v>13388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03132653486462771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01327796474796763</v>
+        <v>0.01280681968737935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05848387879265919</v>
+        <v>0.06124991658598988</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6048,19 +6048,19 @@
         <v>10813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5293</v>
+        <v>5693</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18159</v>
+        <v>18752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0251583306303165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01231373574665709</v>
+        <v>0.01324611197478196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04224993445513789</v>
+        <v>0.0436297284119805</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>207255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201273</v>
+        <v>202192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210208</v>
+        <v>210219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9812249800730708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.952901663984884</v>
+        <v>0.9572553520106065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.995206292308363</v>
+        <v>0.9952578713581157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>216</v>
@@ -6098,19 +6098,19 @@
         <v>211739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205803</v>
+        <v>205199</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215685</v>
+        <v>215788</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9686734651353723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9415161212073406</v>
+        <v>0.9387500834140103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9867220352520324</v>
+        <v>0.9871931803126206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>424</v>
@@ -6119,19 +6119,19 @@
         <v>418995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411649</v>
+        <v>411056</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424515</v>
+        <v>424115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9748416693696835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9577500655448622</v>
+        <v>0.9563702715880196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.987686264253343</v>
+        <v>0.986753888025218</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>2928</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8214</v>
+        <v>8160</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01112677866914555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003003384805721441</v>
+        <v>0.002995884236716021</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03121899723891671</v>
+        <v>0.03101339466700996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6244,19 +6244,19 @@
         <v>14273</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7891</v>
+        <v>7533</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24536</v>
+        <v>23137</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05225852457601874</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02889268835096192</v>
+        <v>0.02758214871645214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08983931809953694</v>
+        <v>0.08471696965896049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -6265,19 +6265,19 @@
         <v>17200</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9795</v>
+        <v>9905</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27107</v>
+        <v>27553</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03207586621852199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01826547532352157</v>
+        <v>0.01847212198038444</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05054998899319109</v>
+        <v>0.05138286379501397</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>260195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254909</v>
+        <v>254963</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262333</v>
+        <v>262335</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9888732213308544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9687810027610833</v>
+        <v>0.96898660533299</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969966151942785</v>
+        <v>0.997004115763284</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -6315,19 +6315,19 @@
         <v>258842</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248579</v>
+        <v>249978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265224</v>
+        <v>265582</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9477414754239812</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9101606819004623</v>
+        <v>0.9152830303410395</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9711073116490381</v>
+        <v>0.972417851283548</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -6336,19 +6336,19 @@
         <v>519038</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>509131</v>
+        <v>508685</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526443</v>
+        <v>526333</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.967924133781478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9494500110068091</v>
+        <v>0.9486171362049867</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9817345246764785</v>
+        <v>0.9815278780196158</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>14528</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8299</v>
+        <v>8234</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22870</v>
+        <v>24447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02212712104333868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01264063385528271</v>
+        <v>0.01254106132559959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03483293649981853</v>
+        <v>0.03723584583011896</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -6461,19 +6461,19 @@
         <v>38833</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27615</v>
+        <v>27247</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53656</v>
+        <v>54593</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05617428421295491</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03994700515698178</v>
+        <v>0.03941405231325978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07761620715365013</v>
+        <v>0.07897184253098076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -6482,19 +6482,19 @@
         <v>53361</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39473</v>
+        <v>40698</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68751</v>
+        <v>69982</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03958942378511784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02928554951096016</v>
+        <v>0.03019466916194958</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05100804428955655</v>
+        <v>0.05192140165463347</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>642030</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>633688</v>
+        <v>632111</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648259</v>
+        <v>648324</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9778728789566613</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9651670635001817</v>
+        <v>0.9627641541698811</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9873593661447175</v>
+        <v>0.9874589386744005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>612</v>
@@ -6532,19 +6532,19 @@
         <v>652461</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>637638</v>
+        <v>636701</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>663679</v>
+        <v>664047</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9438257157870451</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9223837928463496</v>
+        <v>0.9210281574690193</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9600529948430179</v>
+        <v>0.9605859476867402</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1178</v>
@@ -6553,19 +6553,19 @@
         <v>1294491</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1279101</v>
+        <v>1277870</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1308379</v>
+        <v>1307154</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9604105762148821</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9489919557104434</v>
+        <v>0.9480785983453666</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9707144504890398</v>
+        <v>0.9698053308380504</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>14936</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8468</v>
+        <v>8289</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24280</v>
+        <v>24695</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01918367568668284</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01087572042162671</v>
+        <v>0.01064583642098193</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03118432657485076</v>
+        <v>0.03171826296085557</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -6678,19 +6678,19 @@
         <v>57026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42940</v>
+        <v>42663</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74891</v>
+        <v>74114</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0690252684521738</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05197484923008845</v>
+        <v>0.05163983199829318</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09064913017605684</v>
+        <v>0.08970806800555878</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -6699,19 +6699,19 @@
         <v>71962</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55362</v>
+        <v>54955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90228</v>
+        <v>89850</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04484342287519761</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03449898575100591</v>
+        <v>0.03424501498410159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0562257339918865</v>
+        <v>0.05599005222026204</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>763647</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>754303</v>
+        <v>753888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>770115</v>
+        <v>770294</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9808163243133171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9688156734251495</v>
+        <v>0.9682817370391444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9891242795783733</v>
+        <v>0.9893541635790183</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>707</v>
@@ -6749,19 +6749,19 @@
         <v>769141</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>751276</v>
+        <v>752053</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>783227</v>
+        <v>783504</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9309747315478262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.909350869823943</v>
+        <v>0.9102919319944411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9480251507699115</v>
+        <v>0.9483601680017069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1443</v>
@@ -6770,19 +6770,19 @@
         <v>1532788</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1514522</v>
+        <v>1514900</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1549388</v>
+        <v>1549795</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9551565771248024</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9437742660081134</v>
+        <v>0.9440099477797379</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9655010142489941</v>
+        <v>0.9657549850158984</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>52341</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39496</v>
+        <v>38814</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67563</v>
+        <v>68805</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01542009898235469</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0116358945316479</v>
+        <v>0.01143489442991734</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01990460939253804</v>
+        <v>0.02027032827971853</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>187</v>
@@ -6895,19 +6895,19 @@
         <v>218258</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>188859</v>
+        <v>189381</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>247444</v>
+        <v>250455</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06157568046127089</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05328149660140567</v>
+        <v>0.05342894227592656</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06981000136150362</v>
+        <v>0.07065947332709893</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>237</v>
@@ -6916,19 +6916,19 @@
         <v>270599</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>238098</v>
+        <v>237783</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>306332</v>
+        <v>308941</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03899740627773214</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03431353413956627</v>
+        <v>0.03426814894405213</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0441471124840507</v>
+        <v>0.04452307355838149</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3342009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3326787</v>
+        <v>3325545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3354854</v>
+        <v>3355536</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9845799010176454</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9800953906074619</v>
+        <v>0.9797296717202814</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9883641054683521</v>
+        <v>0.9885651055700826</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3151</v>
@@ -6966,19 +6966,19 @@
         <v>3326284</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3297098</v>
+        <v>3294087</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3355683</v>
+        <v>3355161</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9384243195387291</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9301899986384963</v>
+        <v>0.929340526672901</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.946718503398594</v>
+        <v>0.9465710577240734</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6332</v>
@@ -6987,19 +6987,19 @@
         <v>6668293</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6632560</v>
+        <v>6629951</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6700794</v>
+        <v>6701109</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9610025937222678</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9558528875159492</v>
+        <v>0.9554769264416186</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9656864658604337</v>
+        <v>0.9657318510559481</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>2934</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7186</v>
+        <v>7134</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009201154235585672</v>
+        <v>0.009201154235585674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002195914966653121</v>
+        <v>0.002244403499563722</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0225380034040912</v>
+        <v>0.02237351308579346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -7356,19 +7356,19 @@
         <v>5662</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3004</v>
+        <v>3055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9932</v>
+        <v>10281</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01791465933915288</v>
+        <v>0.01791465933915289</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009503613594133296</v>
+        <v>0.009665850689185951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03142429594104091</v>
+        <v>0.03252935990164118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -7377,19 +7377,19 @@
         <v>8596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4872</v>
+        <v>5174</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13710</v>
+        <v>13840</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01353879847734743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007674084830998517</v>
+        <v>0.008148583421847384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02159374247316408</v>
+        <v>0.0217991044928981</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>315911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311659</v>
+        <v>311711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318145</v>
+        <v>318129</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9907988457644141</v>
+        <v>0.9907988457644143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9774619965959087</v>
+        <v>0.9776264869142065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9978040850333467</v>
+        <v>0.9977555965004364</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>527</v>
@@ -7427,19 +7427,19 @@
         <v>310399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306129</v>
+        <v>305780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313057</v>
+        <v>313006</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9820853406608473</v>
+        <v>0.9820853406608471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9685757040589589</v>
+        <v>0.9674706400983588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9904963864058667</v>
+        <v>0.9903341493108141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>854</v>
@@ -7448,19 +7448,19 @@
         <v>626310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>621196</v>
+        <v>621066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630034</v>
+        <v>629732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9864612015226526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.978406257526836</v>
+        <v>0.9782008955071021</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9923259151690015</v>
+        <v>0.9918514165781527</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>15453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8631</v>
+        <v>8369</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24572</v>
+        <v>24360</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02917532240414486</v>
+        <v>0.02917532240414485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01629627418916597</v>
+        <v>0.01579982131017803</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04639280211284614</v>
+        <v>0.04599143568519991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -7573,19 +7573,19 @@
         <v>55481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45284</v>
+        <v>43866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67713</v>
+        <v>68064</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.101779463918058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08307359881594835</v>
+        <v>0.08047296705193498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1242204341187908</v>
+        <v>0.1248629326776083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -7594,19 +7594,19 @@
         <v>70934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56261</v>
+        <v>57756</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85557</v>
+        <v>86351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06599913648706919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05234719598959581</v>
+        <v>0.05373778501404012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07960534739208479</v>
+        <v>0.08034390974484652</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>514207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>505088</v>
+        <v>505300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521029</v>
+        <v>521291</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9708246775958552</v>
+        <v>0.9708246775958551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9536071978871539</v>
+        <v>0.9540085643147995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9837037258108344</v>
+        <v>0.9842001786898217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>633</v>
@@ -7644,19 +7644,19 @@
         <v>489625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>477393</v>
+        <v>477042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499822</v>
+        <v>501240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.898220536081942</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8757795658812094</v>
+        <v>0.8751370673223918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9169264011840516</v>
+        <v>0.9195270329480648</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1000</v>
@@ -7665,19 +7665,19 @@
         <v>1003832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>989209</v>
+        <v>988415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018505</v>
+        <v>1017010</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9340008635129309</v>
+        <v>0.9340008635129308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9203946526079153</v>
+        <v>0.9196560902551536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9476528040104042</v>
+        <v>0.9462622149859599</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>12345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7059</v>
+        <v>7247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19572</v>
+        <v>19704</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0390666631787777</v>
+        <v>0.03906666317877768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02233869095635575</v>
+        <v>0.02293371443525075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06193693184539522</v>
+        <v>0.06235481522258974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -7790,19 +7790,19 @@
         <v>29579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22332</v>
+        <v>22577</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37440</v>
+        <v>37711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08299719095810347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06266388116957478</v>
+        <v>0.06335171413674501</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1050550771040239</v>
+        <v>0.1058164271727234</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -7811,19 +7811,19 @@
         <v>41923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32379</v>
+        <v>32660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52609</v>
+        <v>51853</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06235132688029765</v>
+        <v>0.06235132688029764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04815597246603421</v>
+        <v>0.04857446797388919</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07824375014770237</v>
+        <v>0.07711989760491912</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>303648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296421</v>
+        <v>296289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308934</v>
+        <v>308746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9609333368212223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9380630681546051</v>
+        <v>0.9376451847774103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9776613090436442</v>
+        <v>0.9770662855647494</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>483</v>
@@ -7861,19 +7861,19 @@
         <v>326802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318941</v>
+        <v>318670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334049</v>
+        <v>333804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9170028090418966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8949449228959764</v>
+        <v>0.8941835728272769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9373361188304252</v>
+        <v>0.9366482858632552</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>826</v>
@@ -7882,19 +7882,19 @@
         <v>630452</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619766</v>
+        <v>620522</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639996</v>
+        <v>639715</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9376486731197026</v>
+        <v>0.9376486731197023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9217562498522979</v>
+        <v>0.9228801023950809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9518440275339659</v>
+        <v>0.9514255320261109</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>8484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3877</v>
+        <v>3607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18615</v>
+        <v>18400</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02273758506703873</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01038915702364313</v>
+        <v>0.00966643924284552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04988783258107049</v>
+        <v>0.04931097822401799</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -8007,19 +8007,19 @@
         <v>27801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21578</v>
+        <v>20725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37298</v>
+        <v>36297</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06588610337636697</v>
+        <v>0.06588610337636699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05113671185085568</v>
+        <v>0.04911481207816257</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08839275668321206</v>
+        <v>0.08602015761257067</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -8028,19 +8028,19 @@
         <v>36286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26886</v>
+        <v>27451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47704</v>
+        <v>48240</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04563641239870566</v>
+        <v>0.04563641239870565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03381391642522041</v>
+        <v>0.03452529559563554</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.059997337814222</v>
+        <v>0.06067100111779941</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>364661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354530</v>
+        <v>354745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369268</v>
+        <v>369538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9772624149329614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9501121674189296</v>
+        <v>0.9506890217759827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989610842976357</v>
+        <v>0.9903335607571547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>545</v>
@@ -8078,19 +8078,19 @@
         <v>394160</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>384663</v>
+        <v>385664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>400383</v>
+        <v>401236</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9341138966236332</v>
+        <v>0.9341138966236333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9116072433167884</v>
+        <v>0.9139798423874297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9488632881491447</v>
+        <v>0.9508851879218378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>829</v>
@@ -8099,19 +8099,19 @@
         <v>758821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747403</v>
+        <v>746867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>768221</v>
+        <v>767656</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9543635876012945</v>
+        <v>0.9543635876012941</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9400026621857779</v>
+        <v>0.9393289988822007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9661860835747796</v>
+        <v>0.9654747044043644</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>12930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8262</v>
+        <v>7979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19788</v>
+        <v>19425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06286848830543797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04017134138609745</v>
+        <v>0.0387973901961522</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09621433983377788</v>
+        <v>0.09444783634828728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>111</v>
@@ -8224,19 +8224,19 @@
         <v>44124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36157</v>
+        <v>36505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51597</v>
+        <v>52167</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1945323894567988</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1594068056078911</v>
+        <v>0.1609399201618862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.227477054417663</v>
+        <v>0.229989290501023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -8245,19 +8245,19 @@
         <v>57054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47563</v>
+        <v>49033</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67032</v>
+        <v>67471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1319211340020548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1099749002163592</v>
+        <v>0.1133745908709125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1549925802397396</v>
+        <v>0.1560075828358808</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>192735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185877</v>
+        <v>186240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197403</v>
+        <v>197686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9371315116945619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9037856601662216</v>
+        <v>0.9055521636517126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9598286586139023</v>
+        <v>0.9612026098038479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>380</v>
@@ -8295,19 +8295,19 @@
         <v>182699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175226</v>
+        <v>174656</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190666</v>
+        <v>190318</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8054676105432012</v>
+        <v>0.805467610543201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.772522945582337</v>
+        <v>0.7700107094989765</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8405931943921088</v>
+        <v>0.8390600798381136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>638</v>
@@ -8316,19 +8316,19 @@
         <v>375434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365456</v>
+        <v>365017</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384925</v>
+        <v>383455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8680788659979451</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8450074197602606</v>
+        <v>0.8439924171641192</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.890025099783641</v>
+        <v>0.8866254091290876</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>10753</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6547</v>
+        <v>6729</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16196</v>
+        <v>16078</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03972332511067942</v>
+        <v>0.03972332511067941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02418652771442113</v>
+        <v>0.024858515141452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05982806143672038</v>
+        <v>0.05939379304087859</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -8441,19 +8441,19 @@
         <v>38213</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30995</v>
+        <v>30356</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47055</v>
+        <v>45923</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1452402150123326</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1178072229701107</v>
+        <v>0.1153803818741961</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1788483079955142</v>
+        <v>0.1745475875367772</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -8462,19 +8462,19 @@
         <v>48966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40307</v>
+        <v>40623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60030</v>
+        <v>59789</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09172986019221008</v>
+        <v>0.09172986019221009</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07550928870101875</v>
+        <v>0.07610119610660684</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1124570198963582</v>
+        <v>0.1120057888438485</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>259954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254511</v>
+        <v>254629</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264160</v>
+        <v>263978</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9602766748893206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.94017193856328</v>
+        <v>0.9406062069591214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9758134722855788</v>
+        <v>0.9751414848585485</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>374</v>
@@ -8512,19 +8512,19 @@
         <v>224886</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216044</v>
+        <v>217176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232104</v>
+        <v>232743</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8547597849876674</v>
+        <v>0.8547597849876675</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8211516920044857</v>
+        <v>0.8254524124632227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.882192777029889</v>
+        <v>0.8846196181258037</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>725</v>
@@ -8533,19 +8533,19 @@
         <v>484840</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>473776</v>
+        <v>474017</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>493499</v>
+        <v>493183</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.90827013980779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8875429801036417</v>
+        <v>0.8879942111561515</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9244907112989811</v>
+        <v>0.923898803893393</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>60312</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47348</v>
+        <v>47510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78274</v>
+        <v>75540</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.083904134378589</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06586853361180452</v>
+        <v>0.06609496099382195</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1088921651158727</v>
+        <v>0.1050894644404082</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>230</v>
@@ -8658,19 +8658,19 @@
         <v>167455</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147389</v>
+        <v>149406</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187286</v>
+        <v>188706</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2170862393300201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1910732973043002</v>
+        <v>0.1936876546265916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2427955433664228</v>
+        <v>0.2446356077271136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>292</v>
@@ -8679,19 +8679,19 @@
         <v>227767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>201927</v>
+        <v>203910</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>255988</v>
+        <v>254527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1528436814590564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1355040106339846</v>
+        <v>0.1368349374107455</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.171781855794432</v>
+        <v>0.1708011608606424</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>658507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>640545</v>
+        <v>643279</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>671471</v>
+        <v>671309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.916095865621411</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8911078348841271</v>
+        <v>0.8949105355595918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9341314663881956</v>
+        <v>0.9339050390061782</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>729</v>
@@ -8729,19 +8729,19 @@
         <v>603919</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>584088</v>
+        <v>582668</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>623985</v>
+        <v>621968</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7829137606699799</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7572044566335774</v>
+        <v>0.7553643922728864</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8089267026956999</v>
+        <v>0.8063123453734085</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1265</v>
@@ -8750,19 +8750,19 @@
         <v>1262426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1234205</v>
+        <v>1235666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1288266</v>
+        <v>1286283</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8471563185409438</v>
+        <v>0.8471563185409436</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8282181442055678</v>
+        <v>0.8291988391393575</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8644959893660153</v>
+        <v>0.8631650625892544</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>12047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6526</v>
+        <v>6443</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20476</v>
+        <v>19650</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01509572059498246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008176737357456321</v>
+        <v>0.008072778281787046</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02565649114837617</v>
+        <v>0.02462237539004838</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -8875,19 +8875,19 @@
         <v>38022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29196</v>
+        <v>28390</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49180</v>
+        <v>49125</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04577571376116753</v>
+        <v>0.04577571376116754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03514983300552709</v>
+        <v>0.03417983594348347</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05920915249290711</v>
+        <v>0.05914383829063164</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -8896,19 +8896,19 @@
         <v>50069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39265</v>
+        <v>38560</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63288</v>
+        <v>63021</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03074217063710299</v>
+        <v>0.030742170637103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02410825326998156</v>
+        <v>0.02367564697785498</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0388582154060266</v>
+        <v>0.03869436828079974</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>786025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>777596</v>
+        <v>778422</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>791546</v>
+        <v>791629</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9849042794050175</v>
+        <v>0.9849042794050176</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9743435088516238</v>
+        <v>0.9753776246099517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9918232626425436</v>
+        <v>0.991927221718213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1006</v>
@@ -8946,19 +8946,19 @@
         <v>792587</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>781429</v>
+        <v>781484</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>801413</v>
+        <v>802219</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9542242862388325</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9407908475070932</v>
+        <v>0.9408561617093685</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9648501669944729</v>
+        <v>0.9658201640565166</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1755</v>
@@ -8967,19 +8967,19 @@
         <v>1578612</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1565393</v>
+        <v>1565660</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1589416</v>
+        <v>1590121</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9692578293628969</v>
+        <v>0.9692578293628971</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9611417845939734</v>
+        <v>0.9613056317192</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9758917467300184</v>
+        <v>0.976324353022145</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>135259</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>114111</v>
+        <v>114262</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>159257</v>
+        <v>159871</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03830702820320399</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03231788471421401</v>
+        <v>0.03236046250818243</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04510363066679177</v>
+        <v>0.04527750880996773</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>681</v>
@@ -9092,19 +9092,19 @@
         <v>406336</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>376233</v>
+        <v>376729</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>436486</v>
+        <v>437447</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1088960222174735</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1008284081818562</v>
+        <v>0.1009615313616436</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.116975956090737</v>
+        <v>0.1172334572170692</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>840</v>
@@ -9113,19 +9113,19 @@
         <v>541595</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>506200</v>
+        <v>506301</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>579861</v>
+        <v>582490</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0745759892807021</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06970228890289258</v>
+        <v>0.06971613680761042</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07984514638403362</v>
+        <v>0.08020719445968978</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3395647</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3371649</v>
+        <v>3371035</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3416795</v>
+        <v>3416644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.961692971796796</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9548963693332084</v>
+        <v>0.9547224911900319</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9676821152857861</v>
+        <v>0.9676395374918176</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4677</v>
@@ -9163,19 +9163,19 @@
         <v>3325079</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3294929</v>
+        <v>3293968</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3355182</v>
+        <v>3354686</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8911039777825265</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8830240439092634</v>
+        <v>0.8827665427829312</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8991715918181442</v>
+        <v>0.8990384686383565</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7892</v>
@@ -9184,19 +9184,19 @@
         <v>6720727</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6682461</v>
+        <v>6679832</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6756122</v>
+        <v>6756021</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.925424010719298</v>
+        <v>0.9254240107192978</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9201548536159665</v>
+        <v>0.9197928055403102</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9302977110971075</v>
+        <v>0.9302838631923895</v>
       </c>
     </row>
     <row r="30">
